--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-04-28 03:02:30</t>
@@ -292,8 +292,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
+    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -412,7 +412,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -677,7 +677,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-04-28 03:02:30</t>
@@ -136,7 +136,7 @@
     <t>2017-04-28 03:02:12</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-04-28 03:05:27</t>
   </si>
   <si>
     <t>True</t>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>3b4f7f11-227e-4272-950b-c531c7b6c03a.66cf05ae6d1b6e70cb496d0ee8bba94f91211062.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-04-28 03:05:59</t>
   </si>
   <si>
     <t>cf5fc51b-3d98-4493-9d84-8cbb994eacd0.ec7a02cb049541d09450274516252969c3ccc104.de-de.xlf</t>
@@ -292,8 +295,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
-    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -412,15 +415,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -514,11 +517,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>40</v>
@@ -570,11 +573,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>40</v>
@@ -626,11 +629,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>40</v>
@@ -657,8 +660,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3b4f7f11-227e-4272-950b-c531c7b6c03a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="cf5fc51b-3d98-4493-9d84-8cbb994eacd0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="toc.md" r:id="rId4"/>
+    <hyperlink ref="J2" display="3b4f7f11-227e-4272-950b-c531c7b6c03a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cf5fc51b-3d98-4493-9d84-8cbb994eacd0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="cf5fc51b-3d98-4493-9d84-8cbb994eacd0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="toc.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="toc.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -677,15 +683,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -779,14 +785,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -827,7 +833,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -835,14 +841,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -883,7 +889,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -891,14 +897,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -922,8 +928,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3b4f7f11-227e-4272-950b-c531c7b6c03a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="cf5fc51b-3d98-4493-9d84-8cbb994eacd0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="toc.md" r:id="rId4"/>
+    <hyperlink ref="J2" display="3b4f7f11-227e-4272-950b-c531c7b6c03a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cf5fc51b-3d98-4493-9d84-8cbb994eacd0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="cf5fc51b-3d98-4493-9d84-8cbb994eacd0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="toc.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="toc.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
